--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H2">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I2">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J2">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>448.3796259284277</v>
+        <v>410.429164854547</v>
       </c>
       <c r="R2">
-        <v>4035.416633355849</v>
+        <v>3693.862483690923</v>
       </c>
       <c r="S2">
-        <v>0.002796720942854032</v>
+        <v>0.003937116002483136</v>
       </c>
       <c r="T2">
-        <v>0.003094720167287711</v>
+        <v>0.004392777679351334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H3">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I3">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J3">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>479.8307830999635</v>
+        <v>497.9002934814233</v>
       </c>
       <c r="R3">
-        <v>4318.477047899671</v>
+        <v>4481.10264133281</v>
       </c>
       <c r="S3">
-        <v>0.002992894240774282</v>
+        <v>0.004776198625654378</v>
       </c>
       <c r="T3">
-        <v>0.003311796333899314</v>
+        <v>0.00532897143535789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H4">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I4">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J4">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>240.9387118742129</v>
+        <v>281.0893896367169</v>
       </c>
       <c r="R4">
-        <v>2168.448406867916</v>
+        <v>2529.804506730452</v>
       </c>
       <c r="S4">
-        <v>0.001502829973702788</v>
+        <v>0.00269640081366814</v>
       </c>
       <c r="T4">
-        <v>0.001662961132931745</v>
+        <v>0.003008468457976789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H5">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I5">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J5">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>549.0629937492007</v>
+        <v>306.5491640035959</v>
       </c>
       <c r="R5">
-        <v>3294.377962495204</v>
+        <v>1839.294984021575</v>
       </c>
       <c r="S5">
-        <v>0.003424722901681615</v>
+        <v>0.00294062830445811</v>
       </c>
       <c r="T5">
-        <v>0.002526425111828864</v>
+        <v>0.002187307726593996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H6">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I6">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J6">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>275.2740625560349</v>
+        <v>302.39927762299</v>
       </c>
       <c r="R6">
-        <v>2477.466563004314</v>
+        <v>2721.59349860691</v>
       </c>
       <c r="S6">
-        <v>0.001716993126484884</v>
+        <v>0.002900819768718793</v>
       </c>
       <c r="T6">
-        <v>0.001899944028811343</v>
+        <v>0.003236545817753968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J7">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>20239.57431890986</v>
+        <v>17854.16079588485</v>
       </c>
       <c r="R7">
-        <v>182156.1688701888</v>
+        <v>160687.4471629637</v>
       </c>
       <c r="S7">
-        <v>0.1262422244430466</v>
+        <v>0.1712692669033326</v>
       </c>
       <c r="T7">
-        <v>0.1396937220159219</v>
+        <v>0.1910910962078132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J8">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>21659.25977333019</v>
+        <v>21659.25977333018</v>
       </c>
       <c r="R8">
         <v>194933.3379599717</v>
       </c>
       <c r="S8">
-        <v>0.1350973637336002</v>
+        <v>0.2077703671125281</v>
       </c>
       <c r="T8">
-        <v>0.1494924036529437</v>
+        <v>0.2318166471363591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J9">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>10875.82192251294</v>
+        <v>12227.72548917091</v>
       </c>
       <c r="R9">
-        <v>97882.39730261643</v>
+        <v>110049.5294025382</v>
       </c>
       <c r="S9">
-        <v>0.06783679985115597</v>
+        <v>0.117296668511476</v>
       </c>
       <c r="T9">
-        <v>0.0750650196688535</v>
+        <v>0.1308719852233237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J10">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>24784.3582204245</v>
+        <v>13335.25620164915</v>
       </c>
       <c r="R10">
-        <v>148706.149322547</v>
+        <v>80011.5372098949</v>
       </c>
       <c r="S10">
-        <v>0.1545898379007124</v>
+        <v>0.1279208572015876</v>
       </c>
       <c r="T10">
-        <v>0.1140412406253772</v>
+        <v>0.09515050879615364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J11">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>12425.69805805683</v>
+        <v>13154.73116817535</v>
       </c>
       <c r="R11">
-        <v>111831.2825225115</v>
+        <v>118392.5805135782</v>
       </c>
       <c r="S11">
-        <v>0.07750398987597031</v>
+        <v>0.1261891381645392</v>
       </c>
       <c r="T11">
-        <v>0.08576227854526652</v>
+        <v>0.1407936238495791</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H12">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I12">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J12">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>824.8085237451048</v>
+        <v>1815.774770847335</v>
       </c>
       <c r="R12">
-        <v>7423.276713705945</v>
+        <v>16341.97293762601</v>
       </c>
       <c r="S12">
-        <v>0.005144656756930046</v>
+        <v>0.0174181479275278</v>
       </c>
       <c r="T12">
-        <v>0.005692835769019154</v>
+        <v>0.01943403531504442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H13">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I13">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J13">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>882.6639235372234</v>
+        <v>2202.754747269116</v>
       </c>
       <c r="R13">
-        <v>7943.97531183501</v>
+        <v>19824.79272542204</v>
       </c>
       <c r="S13">
-        <v>0.005505523751992035</v>
+        <v>0.02113032334846965</v>
       </c>
       <c r="T13">
-        <v>0.006092154253110451</v>
+        <v>0.02357583893999867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H14">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I14">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J14">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>443.2143919173942</v>
+        <v>1243.564214633984</v>
       </c>
       <c r="R14">
-        <v>3988.929527256548</v>
+        <v>11192.07793170586</v>
       </c>
       <c r="S14">
-        <v>0.002764503336838844</v>
+        <v>0.01192911466534295</v>
       </c>
       <c r="T14">
-        <v>0.003059069676189667</v>
+        <v>0.01330972940682756</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H15">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I15">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J15">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>1010.018767868002</v>
+        <v>1356.200498615479</v>
       </c>
       <c r="R15">
-        <v>6060.11260720801</v>
+        <v>8137.202991692875</v>
       </c>
       <c r="S15">
-        <v>0.006299886251350239</v>
+        <v>0.01300959859313823</v>
       </c>
       <c r="T15">
-        <v>0.004647439014485361</v>
+        <v>0.009676842013496639</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H16">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I16">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J16">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>506.3753570248155</v>
+        <v>1337.84103579695</v>
       </c>
       <c r="R16">
-        <v>4557.378213223339</v>
+        <v>12040.56932217255</v>
       </c>
       <c r="S16">
-        <v>0.003158463239724786</v>
+        <v>0.01283348212518341</v>
       </c>
       <c r="T16">
-        <v>0.00349500721928957</v>
+        <v>0.01431876373271821</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H17">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I17">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J17">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>534.0336936348094</v>
+        <v>3549.852876808609</v>
       </c>
       <c r="R17">
-        <v>3204.202161808857</v>
+        <v>21299.11726085165</v>
       </c>
       <c r="S17">
-        <v>0.003330979216742046</v>
+        <v>0.03405260581980578</v>
       </c>
       <c r="T17">
-        <v>0.002457270203094376</v>
+        <v>0.02532912021128303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H18">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I18">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J18">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>571.492972919915</v>
+        <v>4306.401543869964</v>
       </c>
       <c r="R18">
-        <v>3428.957837519491</v>
+        <v>25838.40926321979</v>
       </c>
       <c r="S18">
-        <v>0.003564627546913042</v>
+        <v>0.04130993575346229</v>
       </c>
       <c r="T18">
-        <v>0.002629633055689265</v>
+        <v>0.03072729100840933</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H19">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I19">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J19">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>286.9652919116754</v>
+        <v>2431.177079718244</v>
       </c>
       <c r="R19">
-        <v>1721.791751470052</v>
+        <v>14587.06247830947</v>
       </c>
       <c r="S19">
-        <v>0.001789915944775135</v>
+        <v>0.02332150588962435</v>
       </c>
       <c r="T19">
-        <v>0.001320424665225423</v>
+        <v>0.01734707849708429</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H20">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I20">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J20">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>653.9506294090104</v>
+        <v>2651.381833713231</v>
       </c>
       <c r="R20">
-        <v>2615.802517636042</v>
+        <v>10605.52733485292</v>
       </c>
       <c r="S20">
-        <v>0.004078948540700855</v>
+        <v>0.02543385982305833</v>
       </c>
       <c r="T20">
-        <v>0.00200603247210147</v>
+        <v>0.01261219765488988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H21">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I21">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J21">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>327.8597328865353</v>
+        <v>2615.488950438615</v>
       </c>
       <c r="R21">
-        <v>1967.158397319211</v>
+        <v>15692.93370263169</v>
       </c>
       <c r="S21">
-        <v>0.002044990736105986</v>
+        <v>0.02508955084792535</v>
       </c>
       <c r="T21">
-        <v>0.001508593862183326</v>
+        <v>0.01866219145862194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H22">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I22">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J22">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>14013.50732261909</v>
+        <v>161.17272293454</v>
       </c>
       <c r="R22">
-        <v>126121.5659035718</v>
+        <v>1450.55450641086</v>
       </c>
       <c r="S22">
-        <v>0.08740778381902463</v>
+        <v>0.001546078497745744</v>
       </c>
       <c r="T22">
-        <v>0.09672135221564658</v>
+        <v>0.001725013718452568</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H23">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I23">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J23">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>14996.47130189346</v>
+        <v>195.5220362538</v>
       </c>
       <c r="R23">
-        <v>134968.2417170411</v>
+        <v>1759.6983262842</v>
       </c>
       <c r="S23">
-        <v>0.09353891866087978</v>
+        <v>0.001875580498880319</v>
       </c>
       <c r="T23">
-        <v>0.1035057783458012</v>
+        <v>0.002092650596556406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H24">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I24">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J24">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>7530.218163147869</v>
+        <v>110.38187876296</v>
       </c>
       <c r="R24">
-        <v>67771.96346833082</v>
+        <v>993.43690886664</v>
       </c>
       <c r="S24">
-        <v>0.04696894689969063</v>
+        <v>0.001058858137958635</v>
       </c>
       <c r="T24">
-        <v>0.05197363275665387</v>
+        <v>0.001181404965231052</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H25">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I25">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J25">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>17160.23172897642</v>
+        <v>120.37975784025</v>
       </c>
       <c r="R25">
-        <v>102961.3903738585</v>
+        <v>722.2785470415001</v>
       </c>
       <c r="S25">
-        <v>0.107035147641426</v>
+        <v>0.0011547646014285</v>
       </c>
       <c r="T25">
-        <v>0.07896004804266883</v>
+        <v>0.0008589407682951778</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H26">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I26">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J26">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>8603.323764697237</v>
+        <v>118.7501258718</v>
       </c>
       <c r="R26">
-        <v>77429.91388227514</v>
+        <v>1068.7511328462</v>
       </c>
       <c r="S26">
-        <v>0.05366233066692307</v>
+        <v>0.001139132062002564</v>
       </c>
       <c r="T26">
-        <v>0.05938021716571965</v>
+        <v>0.001270969382828023</v>
       </c>
     </row>
   </sheetData>
